--- a/cypress/fixtures/Fal5-Files/FAL5-mandatory-fields-missing.xlsx
+++ b/cypress/fixtures/Fal5-Files/FAL5-mandatory-fields-missing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jayanthi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Homeoffice\NMSW-Main\nmsw-ui\cypress\fixtures\Fal5-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF05462E-39AA-45B5-BA5F-3587BBEA4D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61FCE8C-4466-4E6B-BF34-4ABBA4CF7CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1632">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -4990,9 +4990,6 @@
   </si>
   <si>
     <t>M</t>
-  </si>
-  <si>
-    <t>12/02/1970</t>
   </si>
   <si>
     <t>12/07/2030</t>
@@ -7076,8 +7073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA980"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" customHeight="1"/>
@@ -7303,7 +7300,7 @@
         <v>1627</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G6" s="58" t="s">
         <v>1628</v>
@@ -7311,9 +7308,7 @@
       <c r="H6" s="57" t="s">
         <v>1629</v>
       </c>
-      <c r="I6" s="58" t="s">
-        <v>1630</v>
-      </c>
+      <c r="I6" s="58"/>
       <c r="J6" s="58" t="s">
         <v>1276</v>
       </c>
@@ -7321,7 +7316,7 @@
         <v>1275</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="5"/>
@@ -41150,6 +41145,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D364DC965387FD4EAF4833DDCF640F91" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c7401bc8bddc44f3d87e6545050f3282">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18390984-f7d9-4502-80ba-82ec344db5fb" xmlns:ns3="629dd2dc-abea-47e8-ba88-82202e3ee8ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fc3cb6a02f8baa81433631181c409fee" ns2:_="" ns3:_="">
     <xsd:import namespace="18390984-f7d9-4502-80ba-82ec344db5fb"/>
@@ -41386,27 +41401,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DCF1D7-99F7-4202-82A6-46959FA5E53C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
+    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE1220D-06A4-4F97-A70F-0D90EAC761EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41423,23 +41437,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DCF1D7-99F7-4202-82A6-46959FA5E53C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
-    <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>